--- a/Script/TestOpt/Kin.xlsx
+++ b/Script/TestOpt/Kin.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MBD_Vehicle_Tools\SusDes\Script\TestOpt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88E58F5-FB8E-4EE2-8979-036E3D392578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CFA56B-9A5A-425F-9FAD-904C054639EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3930" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Front" sheetId="1" r:id="rId1"/>
     <sheet name="AAA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>X0</t>
   </si>
@@ -109,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -271,18 +271,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,8 +618,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,6 +633,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I8"/>
+  <dimension ref="B1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,184 +979,132 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+      <c r="B3" s="51">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="26">
+        <f t="shared" ref="E3:E6" si="0">F3-H3</f>
+        <v>-394</v>
+      </c>
+      <c r="F3" s="27">
+        <v>-354</v>
+      </c>
+      <c r="G3" s="43">
+        <f>F3+I3</f>
+        <v>-314</v>
+      </c>
+      <c r="H3" s="52">
+        <v>40</v>
+      </c>
+      <c r="I3" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="44">
+        <v>1</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E8" si="0">F3-H3</f>
-        <v>81.00800000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <v>131.00800000000001</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G8" si="1">F3+I3</f>
-        <v>181.00800000000001</v>
-      </c>
-      <c r="H3" s="15">
-        <v>50</v>
-      </c>
-      <c r="I3" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="46">
+        <f t="shared" ref="E4" si="1">F4-H4</f>
+        <v>-149.6</v>
+      </c>
+      <c r="F4" s="47">
+        <v>-109.6</v>
+      </c>
+      <c r="G4" s="48">
+        <f>F4+I4</f>
+        <v>-69.599999999999994</v>
+      </c>
+      <c r="H4" s="49">
+        <v>40</v>
+      </c>
+      <c r="I4" s="50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="33">
+        <v>2</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E5" s="29">
+        <f t="shared" ref="E5" si="2">F5-H5</f>
+        <v>-811.08</v>
+      </c>
+      <c r="F5" s="25">
+        <v>-771.08</v>
+      </c>
+      <c r="G5" s="40">
+        <f t="shared" ref="G5" si="3">F5+I5</f>
+        <v>-731.08</v>
+      </c>
+      <c r="H5" s="38">
+        <v>40</v>
+      </c>
+      <c r="I5" s="30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34">
+        <v>3</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="41">
         <f t="shared" si="0"/>
-        <v>-252.97300000000001</v>
-      </c>
-      <c r="F4">
-        <v>-202.97300000000001</v>
-      </c>
-      <c r="G4" s="19">
-        <f t="shared" si="1"/>
-        <v>-152.97300000000001</v>
-      </c>
-      <c r="H4" s="20">
-        <v>50</v>
-      </c>
-      <c r="I4" s="21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>-30.975000000000001</v>
-      </c>
-      <c r="F5" s="5">
-        <v>19.024999999999999</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="1"/>
-        <v>69.025000000000006</v>
-      </c>
-      <c r="H5" s="16">
-        <v>50</v>
-      </c>
-      <c r="I5" s="14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
-        <v>3</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="18">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="F6">
-        <v>120</v>
-      </c>
-      <c r="G6" s="19">
-        <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="H6" s="20">
-        <v>50</v>
-      </c>
-      <c r="I6" s="21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="18">
-        <f t="shared" ref="E7" si="2">F7-H7</f>
-        <v>-808.73</v>
-      </c>
-      <c r="F7">
-        <v>-758.73</v>
-      </c>
-      <c r="G7" s="19">
-        <f t="shared" ref="G7" si="3">F7+I7</f>
-        <v>-708.73</v>
-      </c>
-      <c r="H7" s="20">
-        <v>50</v>
-      </c>
-      <c r="I7" s="21">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>-19.5</v>
-      </c>
-      <c r="F8" s="5">
-        <v>30.5</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>80.5</v>
-      </c>
-      <c r="H8" s="16">
-        <v>50</v>
-      </c>
-      <c r="I8" s="14">
-        <v>50</v>
+        <v>57.59</v>
+      </c>
+      <c r="F6" s="31">
+        <v>97.59</v>
+      </c>
+      <c r="G6" s="42">
+        <f t="shared" ref="G6" si="4">F6+I6</f>
+        <v>137.59</v>
+      </c>
+      <c r="H6" s="39">
+        <v>40</v>
+      </c>
+      <c r="I6" s="32">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -816,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C40C5A4-606E-4C36-B215-DB6B23D96F5B}">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,467 +1128,467 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="16">
         <f>F3-H3</f>
-        <v>-411.16899999999998</v>
-      </c>
-      <c r="F3" s="23">
-        <v>-391.16899999999998</v>
-      </c>
-      <c r="G3" s="24">
+        <v>-413.16899999999998</v>
+      </c>
+      <c r="F3" s="17">
+        <v>-393.16899999999998</v>
+      </c>
+      <c r="G3" s="18">
         <f>F3+I3</f>
-        <v>-371.16899999999998</v>
-      </c>
-      <c r="H3" s="15">
-        <v>20</v>
-      </c>
-      <c r="I3" s="13">
+        <v>-373.16899999999998</v>
+      </c>
+      <c r="H3" s="11">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="19">
         <f t="shared" ref="E4:E18" si="0">F4-H4</f>
-        <v>73.043000000000006</v>
-      </c>
-      <c r="F4" s="26">
-        <v>93.043000000000006</v>
-      </c>
-      <c r="G4" s="27">
+        <v>68.558999999999997</v>
+      </c>
+      <c r="F4" s="20">
+        <v>88.558999999999997</v>
+      </c>
+      <c r="G4" s="21">
         <f t="shared" ref="G4:G18" si="1">F4+I4</f>
-        <v>113.04300000000001</v>
-      </c>
-      <c r="H4" s="16">
-        <v>20</v>
-      </c>
-      <c r="I4" s="14">
+        <v>108.559</v>
+      </c>
+      <c r="H4" s="12">
+        <v>20</v>
+      </c>
+      <c r="I4" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="22">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="F5" s="29">
-        <v>105</v>
-      </c>
-      <c r="G5" s="30">
+        <v>84.108000000000004</v>
+      </c>
+      <c r="F5" s="23">
+        <v>104.108</v>
+      </c>
+      <c r="G5" s="24">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="H5" s="20">
-        <v>20</v>
-      </c>
-      <c r="I5" s="21">
+        <v>124.108</v>
+      </c>
+      <c r="H5" s="14">
+        <v>20</v>
+      </c>
+      <c r="I5" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
-        <v>29.58</v>
-      </c>
-      <c r="F6" s="23">
-        <v>49.58</v>
-      </c>
-      <c r="G6" s="24">
+        <v>20.686999999999998</v>
+      </c>
+      <c r="F6" s="17">
+        <v>40.686999999999998</v>
+      </c>
+      <c r="G6" s="18">
         <f t="shared" si="1"/>
-        <v>69.58</v>
-      </c>
-      <c r="H6" s="15">
-        <v>20</v>
-      </c>
-      <c r="I6" s="13">
+        <v>60.686999999999998</v>
+      </c>
+      <c r="H6" s="11">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="19">
         <f t="shared" si="0"/>
-        <v>44.7</v>
-      </c>
-      <c r="F7" s="26">
-        <v>64.7</v>
-      </c>
-      <c r="G7" s="27">
+        <v>53.921000000000006</v>
+      </c>
+      <c r="F7" s="20">
+        <v>73.921000000000006</v>
+      </c>
+      <c r="G7" s="21">
         <f t="shared" si="1"/>
-        <v>84.7</v>
-      </c>
-      <c r="H7" s="16">
-        <v>20</v>
-      </c>
-      <c r="I7" s="14">
+        <v>93.921000000000006</v>
+      </c>
+      <c r="H7" s="12">
+        <v>20</v>
+      </c>
+      <c r="I7" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="22">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="F8" s="29">
-        <v>105</v>
-      </c>
-      <c r="G8" s="30">
+        <v>87.093000000000004</v>
+      </c>
+      <c r="F8" s="23">
+        <v>107.093</v>
+      </c>
+      <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="H8" s="20">
-        <v>20</v>
-      </c>
-      <c r="I8" s="21">
+        <v>127.093</v>
+      </c>
+      <c r="H8" s="14">
+        <v>20</v>
+      </c>
+      <c r="I8" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
-        <v>-413.23500000000001</v>
-      </c>
-      <c r="F9" s="23">
-        <v>-393.23500000000001</v>
-      </c>
-      <c r="G9" s="24">
+        <v>-422.89699999999999</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-402.89699999999999</v>
+      </c>
+      <c r="G9" s="18">
         <f t="shared" si="1"/>
-        <v>-373.23500000000001</v>
-      </c>
-      <c r="H9" s="15">
-        <v>20</v>
-      </c>
-      <c r="I9" s="13">
+        <v>-382.89699999999999</v>
+      </c>
+      <c r="H9" s="11">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="19">
         <f t="shared" si="0"/>
-        <v>-30.885999999999999</v>
-      </c>
-      <c r="F10" s="26">
-        <v>-10.885999999999999</v>
-      </c>
-      <c r="G10" s="27">
+        <v>-33.853999999999999</v>
+      </c>
+      <c r="F10" s="20">
+        <v>-13.853999999999999</v>
+      </c>
+      <c r="G10" s="21">
         <f t="shared" si="1"/>
-        <v>9.1140000000000008</v>
-      </c>
-      <c r="H10" s="16">
-        <v>20</v>
-      </c>
-      <c r="I10" s="14">
+        <v>6.1460000000000008</v>
+      </c>
+      <c r="H10" s="12">
+        <v>20</v>
+      </c>
+      <c r="I10" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="22">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="F11" s="29">
-        <v>-80</v>
-      </c>
-      <c r="G11" s="30">
+        <v>-112.78100000000001</v>
+      </c>
+      <c r="F11" s="23">
+        <v>-92.781000000000006</v>
+      </c>
+      <c r="G11" s="24">
         <f t="shared" si="1"/>
-        <v>-60</v>
-      </c>
-      <c r="H11" s="20">
-        <v>20</v>
-      </c>
-      <c r="I11" s="21">
+        <v>-72.781000000000006</v>
+      </c>
+      <c r="H11" s="14">
+        <v>20</v>
+      </c>
+      <c r="I11" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="16">
         <f t="shared" si="0"/>
-        <v>54.971000000000004</v>
-      </c>
-      <c r="F12" s="23">
-        <v>74.971000000000004</v>
-      </c>
-      <c r="G12" s="24">
+        <v>68.507000000000005</v>
+      </c>
+      <c r="F12" s="17">
+        <v>88.507000000000005</v>
+      </c>
+      <c r="G12" s="18">
         <f t="shared" si="1"/>
-        <v>94.971000000000004</v>
-      </c>
-      <c r="H12" s="15">
-        <v>20</v>
-      </c>
-      <c r="I12" s="13">
+        <v>108.50700000000001</v>
+      </c>
+      <c r="H12" s="11">
+        <v>20</v>
+      </c>
+      <c r="I12" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="19">
         <f t="shared" si="0"/>
-        <v>-71.766999999999996</v>
-      </c>
-      <c r="F13" s="26">
-        <v>-51.767000000000003</v>
-      </c>
-      <c r="G13" s="27">
+        <v>-65.575999999999993</v>
+      </c>
+      <c r="F13" s="20">
+        <v>-45.576000000000001</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="1"/>
-        <v>-31.767000000000003</v>
-      </c>
-      <c r="H13" s="16">
-        <v>20</v>
-      </c>
-      <c r="I13" s="14">
+        <v>-25.576000000000001</v>
+      </c>
+      <c r="H13" s="12">
+        <v>20</v>
+      </c>
+      <c r="I13" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="22">
         <f t="shared" si="0"/>
-        <v>-99.99</v>
-      </c>
-      <c r="F14" s="29">
-        <v>-79.989999999999995</v>
-      </c>
-      <c r="G14" s="30">
+        <v>-98.43</v>
+      </c>
+      <c r="F14" s="23">
+        <v>-78.430000000000007</v>
+      </c>
+      <c r="G14" s="24">
         <f t="shared" si="1"/>
-        <v>-59.989999999999995</v>
-      </c>
-      <c r="H14" s="20">
-        <v>20</v>
-      </c>
-      <c r="I14" s="21">
+        <v>-58.430000000000007</v>
+      </c>
+      <c r="H14" s="14">
+        <v>20</v>
+      </c>
+      <c r="I14" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="16">
         <f t="shared" si="0"/>
-        <v>106.378</v>
-      </c>
-      <c r="F15" s="23">
-        <v>126.378</v>
-      </c>
-      <c r="G15" s="24">
+        <v>101.95</v>
+      </c>
+      <c r="F15" s="17">
+        <v>121.95</v>
+      </c>
+      <c r="G15" s="18">
         <f t="shared" si="1"/>
-        <v>146.37799999999999</v>
-      </c>
-      <c r="H15" s="15">
-        <v>20</v>
-      </c>
-      <c r="I15" s="13">
+        <v>141.94999999999999</v>
+      </c>
+      <c r="H15" s="11">
+        <v>20</v>
+      </c>
+      <c r="I15" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8">
+      <c r="B16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="19">
         <f t="shared" si="0"/>
-        <v>0.83999999999999986</v>
-      </c>
-      <c r="F16" s="26">
-        <v>20.84</v>
-      </c>
-      <c r="G16" s="27">
+        <v>5.5079999999999991</v>
+      </c>
+      <c r="F16" s="20">
+        <v>25.507999999999999</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="1"/>
-        <v>40.840000000000003</v>
-      </c>
-      <c r="H16" s="16">
-        <v>20</v>
-      </c>
-      <c r="I16" s="14">
+        <v>45.507999999999996</v>
+      </c>
+      <c r="H16" s="12">
+        <v>20</v>
+      </c>
+      <c r="I16" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="16">
         <f t="shared" si="0"/>
-        <v>103.175</v>
-      </c>
-      <c r="F17" s="23">
-        <v>123.175</v>
-      </c>
-      <c r="G17" s="24">
+        <v>103.405</v>
+      </c>
+      <c r="F17" s="17">
+        <v>123.405</v>
+      </c>
+      <c r="G17" s="18">
         <f t="shared" si="1"/>
-        <v>143.17500000000001</v>
-      </c>
-      <c r="H17" s="15">
-        <v>20</v>
-      </c>
-      <c r="I17" s="13">
+        <v>143.405</v>
+      </c>
+      <c r="H17" s="11">
+        <v>20</v>
+      </c>
+      <c r="I17" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
+      <c r="B18" s="5">
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="19">
         <f t="shared" si="0"/>
-        <v>-772.02099999999996</v>
-      </c>
-      <c r="F18" s="26">
-        <v>-752.02099999999996</v>
-      </c>
-      <c r="G18" s="27">
+        <v>-773.41499999999996</v>
+      </c>
+      <c r="F18" s="20">
+        <v>-753.41499999999996</v>
+      </c>
+      <c r="G18" s="21">
         <f t="shared" si="1"/>
-        <v>-732.02099999999996</v>
-      </c>
-      <c r="H18" s="16">
-        <v>20</v>
-      </c>
-      <c r="I18" s="14">
+        <v>-733.41499999999996</v>
+      </c>
+      <c r="H18" s="12">
+        <v>20</v>
+      </c>
+      <c r="I18" s="10">
         <v>20</v>
       </c>
     </row>
